--- a/src/test/resources/testData/testDataUserInfo.xlsx
+++ b/src/test/resources/testData/testDataUserInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\04 Maven Hybrid Framework\mvn-allure-hybrid-framework\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\04 Maven Hybrid Framework\mvn-allure-hybrid-framework\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EF1AF8-1885-4DFC-AE1A-08BCE1203DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029F41A4-4F63-455E-8D78-44A36C6A99F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4281585B-0308-450F-9D1F-A5AEACBC06CE}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,8 +475,8 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f ca="1">A2&amp;"."&amp;B2&amp;"."&amp;RANDBETWEEN(100000,999999)&amp;"@gmail.com"</f>
-        <v>Automation.Testing.368095@gmail.com</v>
+        <f ca="1">LOWER(A2)&amp;"."&amp;LOWER(B2)&amp;"."&amp;RANDBETWEEN(100000,999999)&amp;"@gmail.com"</f>
+        <v>automation.testing.393667@gmail.com</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
